--- a/Project Outputs for 105848/BOM/Bill of Materials-105848.xlsx
+++ b/Project Outputs for 105848/BOM/Bill of Materials-105848.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
   <si>
     <t>Designator</t>
   </si>
@@ -25,19 +25,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t>MPN</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>PackageReference</t>
+    <t>PackageDescription</t>
   </si>
   <si>
     <t>BR1</t>
@@ -46,12 +40,12 @@
     <t>1A SMT Bridge Rectifier</t>
   </si>
   <si>
+    <t>BRIDGE - SMT</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>BRIDGE - SMT</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -97,19 +91,16 @@
     <t>100uF</t>
   </si>
   <si>
-    <t>D1, D2, D10</t>
-  </si>
-  <si>
-    <t>Diode 1N5400</t>
-  </si>
-  <si>
-    <t>B5819W</t>
-  </si>
-  <si>
-    <t>1N5400, Diode, SMD</t>
-  </si>
-  <si>
-    <t>Diode SMT, 1N4002</t>
+    <t>D1, D2, D9, D10</t>
+  </si>
+  <si>
+    <t>BAS20</t>
+  </si>
+  <si>
+    <t>BAS20, Diode, SMD</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
   </si>
   <si>
     <t>D3</t>
@@ -121,10 +112,10 @@
     <t>Schottky Diode, SMD</t>
   </si>
   <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>D4, D5, D6, D7, D8, D9</t>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>D4, D5, D6, D7, D8</t>
   </si>
   <si>
     <t>1N4002</t>
@@ -154,6 +145,9 @@
     <t>ULN2003</t>
   </si>
   <si>
+    <t>SO-16</t>
+  </si>
+  <si>
     <t>IC2</t>
   </si>
   <si>
@@ -163,7 +157,10 @@
     <t>DUAL OPTO ISOLATOR</t>
   </si>
   <si>
-    <t>OPTO ISOLATOR</t>
+    <t>ILD207</t>
+  </si>
+  <si>
+    <t>SO8</t>
   </si>
   <si>
     <t>J1</t>
@@ -172,9 +169,6 @@
     <t>KLD-0202_2</t>
   </si>
   <si>
-    <t>DC-005</t>
-  </si>
-  <si>
     <t>DC POWER PLUG</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>6P MOD JACK</t>
   </si>
   <si>
-    <t>Tetco</t>
-  </si>
-  <si>
     <t>J3, J4, J5, J6</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>ICSP</t>
   </si>
   <si>
-    <t>P125-1106A1BS116A1</t>
-  </si>
-  <si>
     <t>DIP-BLACK-MALE-HEADER(6P-2.54)</t>
   </si>
   <si>
@@ -241,18 +229,12 @@
     <t>AC PWR, QW, RELAY1, RELAY2</t>
   </si>
   <si>
-    <t>Zetler</t>
-  </si>
-  <si>
     <t>LED1, LED2, LED3, LED4</t>
   </si>
   <si>
     <t>LED-0805</t>
   </si>
   <si>
-    <t>17-215SURC/S530-A2/TR8</t>
-  </si>
-  <si>
     <t>12V Power Indicator, Battery Power Indicator, 5V Power Indicator, Power Input Indicator</t>
   </si>
   <si>
@@ -268,24 +250,15 @@
     <t>Arduino Uno</t>
   </si>
   <si>
-    <t>Arduino.cc</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
     <t>Metro Mini 328</t>
   </si>
   <si>
-    <t>2590</t>
-  </si>
-  <si>
     <t>Adafruit METRO Mini 328 rev A</t>
   </si>
   <si>
-    <t>Adafruit Industries</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -295,9 +268,6 @@
     <t>NPN Bipolar Transistor</t>
   </si>
   <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
     <t>Q2, Q3</t>
   </si>
   <si>
@@ -343,7 +313,7 @@
     <t>2K</t>
   </si>
   <si>
-    <t>R7, R10, R13</t>
+    <t>R7, R10</t>
   </si>
   <si>
     <t>2.2K</t>
@@ -355,6 +325,12 @@
     <t>3.74K</t>
   </si>
   <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -364,24 +340,15 @@
     <t>MOSFET P-CHANNEL</t>
   </si>
   <si>
-    <t>Diodes, Inc.</t>
-  </si>
-  <si>
     <t>VR1</t>
   </si>
   <si>
-    <t>LM317</t>
-  </si>
-  <si>
     <t>LM317DCYR</t>
   </si>
   <si>
     <t>Adjustable SMT Voltage Regulator</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>SOT-23-4</t>
   </si>
   <si>
@@ -394,10 +361,7 @@
     <t>SMT 12V Fixed Output Voltage Regulator</t>
   </si>
   <si>
-    <t>MC7812</t>
-  </si>
-  <si>
-    <t>ON Semi</t>
+    <t>MC7812CD</t>
   </si>
   <si>
     <t>DPAK</t>
@@ -412,7 +376,7 @@
     <t>SMT 5V Linear Voltage Regulator</t>
   </si>
   <si>
-    <t>MC7805</t>
+    <t>MC7805BDT</t>
   </si>
   <si>
     <t>DPAK-3</t>
@@ -786,23 +750,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,925 +783,729 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>